--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75b786d8cc30dd47/Fitxers adjunts/Escritorio/TFG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75b786d8cc30dd47/Fitxers adjunts/Escritorio/Repositorio TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9352" documentId="11_946C5EB4579AAA26EDD92CDB70A923ACDF7E7BFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8849107A-FC4B-4A16-AD40-CBAD5EA3B4FC}"/>
+  <xr:revisionPtr revIDLastSave="9353" documentId="11_946C5EB4579AAA26EDD92CDB70A923ACDF7E7BFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EAA3111-29EC-44E5-86C4-FE2456A17D11}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="837">
   <si>
     <t>Impressions Totales</t>
   </si>
@@ -2544,6 +2544,9 @@
   </si>
   <si>
     <t>“Les Immanquables (semaine 3)”</t>
+  </si>
+  <si>
+    <t>Reach Market</t>
   </si>
 </sst>
 </file>
@@ -2937,7 +2940,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -2971,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>1</v>
+        <v>836</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
